--- a/database/questions.xlsx
+++ b/database/questions.xlsx
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +452,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +497,7 @@
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
@@ -520,7 +523,7 @@
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
@@ -546,7 +549,7 @@
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -572,7 +575,7 @@
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">

--- a/database/questions.xlsx
+++ b/database/questions.xlsx
@@ -45,9 +45,6 @@
     <t>correct</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
     <t>2 + 3 = ?</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>15-20</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
   <si>
     <r>
@@ -95,6 +89,12 @@
   </si>
   <si>
     <t>5-9</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
@@ -573,16 +573,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -599,25 +599,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>5</v>
